--- a/results/Analysis_Sensitivity/Sens.Stratified.Scale/06_Log.M2.Scaled.Coef.xlsx
+++ b/results/Analysis_Sensitivity/Sens.Stratified.Scale/06_Log.M2.Scaled.Coef.xlsx
@@ -422,17 +422,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.73 (0.62, 0.86)</t>
+          <t>0.79 (0.68, 0.93)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.74 (0.62, 0.89)</t>
+          <t>0.75 (0.63, 0.89)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -442,17 +442,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.80 (0.66, 0.96)</t>
+          <t>0.77 (0.64, 0.92)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.68 (0.57, 0.82)</t>
+          <t>0.69 (0.58, 0.83)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.73 (0.62, 0.88)</t>
+          <t>0.75 (0.63, 0.88)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.68 (0.58, 0.80)</t>
+          <t>0.67 (0.57, 0.79)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.72 (0.63, 0.83)</t>
+          <t>0.68 (0.59, 0.79)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.79 (0.69, 0.90)</t>
+          <t>0.74 (0.65, 0.84)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.69 (0.60, 0.79)</t>
+          <t>0.66 (0.57, 0.76)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.71 (0.62, 0.82)</t>
+          <t>0.68 (0.59, 0.79)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HF</t>
+          <t>Heart failure</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.33 (0.20, 0.51)</t>
+          <t>0.26 (0.15, 0.42)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.49 (0.36, 0.66)</t>
+          <t>0.45 (0.33, 0.60)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.59 (0.46, 0.75)</t>
+          <t>0.56 (0.44, 0.70)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.39 (0.29, 0.53)</t>
+          <t>0.38 (0.28, 0.52)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.47 (0.34, 0.65)</t>
+          <t>0.42 (0.30, 0.58)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -588,22 +588,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Myocardial Infarction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.57 (0.38, 0.81)</t>
+          <t>0.58 (0.38, 0.84)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.54 (0.39, 0.72)</t>
+          <t>0.53 (0.39, 0.70)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.56 (0.43, 0.72)</t>
+          <t>0.55 (0.43, 0.70)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.56 (0.42, 0.75)</t>
+          <t>0.57 (0.43, 0.75)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.52 (0.37, 0.71)</t>
+          <t>0.52 (0.37, 0.70)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -650,52 +650,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.83 (0.69, 0.98)</t>
+          <t>0.76 (0.62, 0.91)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.80 (0.67, 0.94)</t>
+          <t>0.73 (0.62, 0.86)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.80 (0.68, 0.94)</t>
+          <t>0.75 (0.64, 0.88)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.79 (0.66, 0.92)</t>
+          <t>0.73 (0.62, 0.86)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.82 (0.69, 0.97)</t>
+          <t>0.76 (0.64, 0.89)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
